--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/unmute_household.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/unmute_household.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -385,25 +385,16 @@
     <t xml:space="preserve">list_name</t>
   </si>
   <si>
-    <t xml:space="preserve">all_members_came_back</t>
-  </si>
-  <si>
     <t xml:space="preserve">All household members Came back</t>
   </si>
   <si>
     <t xml:space="preserve">Wanakaya wote Walirudi</t>
   </si>
   <si>
-    <t xml:space="preserve">household_now_accepted_chv_services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Household has now accepted CHV services</t>
   </si>
   <si>
     <t xml:space="preserve">Kaya sasa imekubali huduma za CHV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
@@ -491,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
   </si>
 </sst>
 </file>
@@ -793,12 +787,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -912,7 +906,7 @@
   </sheetPr>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -920,7 +914,7 @@
       <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2187,17 +2181,17 @@
   </sheetPr>
   <dimension ref="A1:R997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
@@ -2237,11 +2231,11 @@
       <c r="B2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -2263,13 +2257,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -2290,14 +2284,14 @@
       <c r="A4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>107</v>
+      <c r="B4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -3774,7 +3768,7 @@
       <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
@@ -3783,25 +3777,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -3824,25 +3818,25 @@
       <c r="Z1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>117</v>
+      <c r="A2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="23" t="n">
         <f aca="true">NOW()</f>
-        <v>45104.5568782897</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>119</v>
+        <v>45254.5595745484</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -10772,7 +10766,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
   </cols>
@@ -10785,25 +10779,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
@@ -10822,13 +10816,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -10853,13 +10847,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -10909,13 +10903,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -10940,13 +10934,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -10971,13 +10965,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
